--- a/data.xlsx
+++ b/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby Tatsuya\TimeLine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B18F7509-7617-43CE-9C0C-A283EF65C21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFACA2B-A2A1-40D6-97C8-984A2A1DEAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
@@ -61,49 +61,84 @@
     <t>Background_url</t>
   </si>
   <si>
-    <t>TimeSpan Title</t>
-  </si>
-  <si>
-    <t>Example Text for this TimeSpan</t>
-  </si>
-  <si>
     <t>download.jpeg</t>
   </si>
   <si>
-    <t>Media Credit Text</t>
-  </si>
-  <si>
     <t>Media Caption</t>
   </si>
   <si>
     <t>#3333f3</t>
   </si>
   <si>
-    <t>Single day event</t>
-  </si>
-  <si>
-    <t>Here is the text for that</t>
-  </si>
-  <si>
-    <t>Media Credit Text 2</t>
-  </si>
-  <si>
-    <t>Image Caption 2</t>
-  </si>
-  <si>
-    <t>#222222</t>
-  </si>
-  <si>
-    <t>Second Timespan</t>
-  </si>
-  <si>
     <t>Text for this</t>
+  </si>
+  <si>
+    <t>untitled-3.mp3</t>
+  </si>
+  <si>
+    <t>Lauren Cockerill</t>
+  </si>
+  <si>
+    <t>Norwegian Wood - live in the Vern</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>KANGA.mp4</t>
+  </si>
+  <si>
+    <t>THIS IS A VIDEO OF A KANGAROO</t>
+  </si>
+  <si>
+    <t>This has no image</t>
+  </si>
+  <si>
+    <t>Will this handle No image ok?</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>End_Hour</t>
+  </si>
+  <si>
+    <t>End_Minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example </t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>Here is more text for this event</t>
+  </si>
+  <si>
+    <t>Media Credit</t>
+  </si>
+  <si>
+    <t>The following stories contain memorials to the children who have been part of our life and are now remembered in words of love. Just three things remain, faith, hope and love. The greatest of these is love. Corinthians, Ch.13; V.13.</t>
+  </si>
+  <si>
+    <t>Official opening of the Centre by Lady Stoddart. Established to offer services to anyone affected by the death of a child.
+&lt;br&gt;&lt;br&gt;
+When a child dies...&lt;br&gt;
+The death of a child is one of the most devastating events that can happen to any family.
+&lt;br&gt;&lt;br&gt;
+The pain may be greater than any other have felt. However, even at its most distressing the pain of grief is a natural reaction at that time.
+&lt;br&gt;&lt;br&gt;
+At times the emotional and physical symptoms can be so overwhelming that they make everyday living very difficult.&lt;br&gt;&lt;br&gt;
+Surviving the pain of grief may seem impossible for a long time. Family, friends and others can be an important source of support but sometimes people need extra help.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,18 +457,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -549,31 +578,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,14 +637,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -984,161 +997,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.26953125" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="67.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:17" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2010</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2010</v>
       </c>
-      <c r="E2">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2010</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2010</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby Tatsuya\TimeLine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFACA2B-A2A1-40D6-97C8-984A2A1DEAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF890A8-59E9-4079-A6A2-6DCF36D0D7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Year</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Background_url</t>
   </si>
   <si>
-    <t>download.jpeg</t>
-  </si>
-  <si>
     <t>Media Caption</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Text for this</t>
   </si>
   <si>
-    <t>untitled-3.mp3</t>
-  </si>
-  <si>
     <t>Lauren Cockerill</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
   </si>
   <si>
     <t>Third</t>
-  </si>
-  <si>
-    <t>KANGA.mp4</t>
   </si>
   <si>
     <t>THIS IS A VIDEO OF A KANGAROO</t>
@@ -133,6 +124,42 @@
 &lt;br&gt;&lt;br&gt;
 At times the emotional and physical symptoms can be so overwhelming that they make everyday living very difficult.&lt;br&gt;&lt;br&gt;
 Surviving the pain of grief may seem impossible for a long time. Family, friends and others can be an important source of support but sometimes people need extra help.</t>
+  </si>
+  <si>
+    <t>exampleImg</t>
+  </si>
+  <si>
+    <t>exampleAud</t>
+  </si>
+  <si>
+    <t>exampleVid</t>
+  </si>
+  <si>
+    <t>exampleMulti</t>
+  </si>
+  <si>
+    <t>Multi test</t>
+  </si>
+  <si>
+    <t>Test for multi</t>
+  </si>
+  <si>
+    <t>new image set</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>demo2</t>
+  </si>
+  <si>
+    <t>Here will be 5 images</t>
+  </si>
+  <si>
+    <t>exampleimg</t>
+  </si>
+  <si>
+    <t>out of order</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,8 +1044,7 @@
     <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.42578125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1033,10 +1059,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1048,10 +1074,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -1077,10 +1103,10 @@
     </row>
     <row r="2" spans="1:17" ht="234" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1097,25 +1123,16 @@
         <v>12</v>
       </c>
       <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1132,22 +1149,25 @@
         <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1164,16 +1184,25 @@
         <v>12</v>
       </c>
       <c r="E5" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1190,16 +1219,96 @@
         <v>12</v>
       </c>
       <c r="E6" s="1">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
         <v>38</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>13</v>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby Tatsuya\TimeLine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF890A8-59E9-4079-A6A2-6DCF36D0D7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4C5EB-4749-4688-AE37-272EAE05D283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -61,33 +61,6 @@
     <t>Background_url</t>
   </si>
   <si>
-    <t>Media Caption</t>
-  </si>
-  <si>
-    <t>#3333f3</t>
-  </si>
-  <si>
-    <t>Text for this</t>
-  </si>
-  <si>
-    <t>Lauren Cockerill</t>
-  </si>
-  <si>
-    <t>Norwegian Wood - live in the Vern</t>
-  </si>
-  <si>
-    <t>Third</t>
-  </si>
-  <si>
-    <t>THIS IS A VIDEO OF A KANGAROO</t>
-  </si>
-  <si>
-    <t>This has no image</t>
-  </si>
-  <si>
-    <t>Will this handle No image ok?</t>
-  </si>
-  <si>
     <t>Hour</t>
   </si>
   <si>
@@ -100,73 +73,47 @@
     <t>End_Minute</t>
   </si>
   <si>
-    <t xml:space="preserve">Example </t>
-  </si>
-  <si>
-    <t>Example 2</t>
-  </si>
-  <si>
-    <t>Here is more text for this event</t>
-  </si>
-  <si>
-    <t>Media Credit</t>
-  </si>
-  <si>
-    <t>The following stories contain memorials to the children who have been part of our life and are now remembered in words of love. Just three things remain, faith, hope and love. The greatest of these is love. Corinthians, Ch.13; V.13.</t>
+    <t>exampleMulti</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>media credit goes here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here is an option to insert a caption for this media. </t>
+  </si>
+  <si>
+    <t>#6666aa</t>
   </si>
   <si>
     <t>Official opening of the Centre by Lady Stoddart. Established to offer services to anyone affected by the death of a child.
-&lt;br&gt;&lt;br&gt;
-When a child dies...&lt;br&gt;
+When a child dies...
 The death of a child is one of the most devastating events that can happen to any family.
-&lt;br&gt;&lt;br&gt;
 The pain may be greater than any other have felt. However, even at its most distressing the pain of grief is a natural reaction at that time.
-&lt;br&gt;&lt;br&gt;
-At times the emotional and physical symptoms can be so overwhelming that they make everyday living very difficult.&lt;br&gt;&lt;br&gt;
+At times the emotional and physical symptoms can be so overwhelming that they make everyday living very difficult.
 Surviving the pain of grief may seem impossible for a long time. Family, friends and others can be an important source of support but sometimes people need extra help.</t>
   </si>
   <si>
-    <t>exampleImg</t>
-  </si>
-  <si>
-    <t>exampleAud</t>
-  </si>
-  <si>
-    <t>exampleVid</t>
-  </si>
-  <si>
-    <t>exampleMulti</t>
-  </si>
-  <si>
-    <t>Multi test</t>
-  </si>
-  <si>
-    <t>Test for multi</t>
-  </si>
-  <si>
-    <t>new image set</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>demo2</t>
-  </si>
-  <si>
-    <t>Here will be 5 images</t>
-  </si>
-  <si>
-    <t>exampleimg</t>
-  </si>
-  <si>
-    <t>out of order</t>
+    <t>The following stories contain memorials to the children who have been part of our life and are now remembered in words of love. Just three things remain, faith, hope and love. The greatest of these is love. 
+Corinthians, Ch.13; V.13.</t>
+  </si>
+  <si>
+    <t>Here is an example of what a page will look like. Just slightly cluttered than is necessary so that I can display all the options you have. In the excel file, you can see all the information relevant to this page in the relevant row. Under 'Media' is the name of a folder containing all the elements to the left. They naturally get sorted by the filename.
+The image in the background is also optional, in the excel you can see another folder name is given under 'Background_url' which cotains the image used for the background,  a colour can also be given in hexadecimal values to change the background under 'Background_hex'. Currently both are being used for this page
+The first row in the excel will correspond to the title page, this is the page that will launch first any time you start up the program.
+All subsequent rows will be interpreted as a new event and will have a page like this made for it. You do not need to fill every column. If you find columns that you will never use, feel free to delete them. The program fetches data based on the column titles, so only these must stay as they are.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +248,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,8 +450,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -616,6 +596,34 @@
       </top>
       <bottom style="thin">
         <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,12 +672,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1025,91 +1043,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="32.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="67.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="P2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="234" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="300" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -1126,189 +1169,25 @@
         <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>35</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>36</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>37</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>22</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>19</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby Tatsuya\TimeLine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4C5EB-4749-4688-AE37-272EAE05D283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467B8637-5C90-4C1A-92D2-EC9F4BBF3F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -682,9 +682,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1043,33 +1043,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="67.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="8.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="67.453125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.453125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="234" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1152,7 +1152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="300" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -1189,6 +1189,26 @@
       <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
